--- a/test/files/IDR7-SDP-Questionnaire-v10-jef.xlsx
+++ b/test/files/IDR7-SDP-Questionnaire-v10-jef.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="26280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="26280" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5949" uniqueCount="1855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5953" uniqueCount="1859">
   <si>
     <t>type</t>
   </si>
@@ -6018,6 +6018,18 @@
   </si>
   <si>
     <t>ppp_excludes</t>
+  </si>
+  <si>
+    <t>ppp_form_title::Français</t>
+  </si>
+  <si>
+    <t>ppp_form_title::English</t>
+  </si>
+  <si>
+    <t>SDP Questionnaire v10</t>
+  </si>
+  <si>
+    <t>Questionnaire SPS v10</t>
   </si>
 </sst>
 </file>
@@ -6416,7 +6428,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="784">
+  <cellStyleXfs count="788">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7201,6 +7213,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -7631,7 +7647,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="784">
+  <cellStyles count="788">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -8022,6 +8038,8 @@
     <cellStyle name="Followed Hyperlink" xfId="779" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="781" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="783" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="785" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="787" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -8412,6 +8430,8 @@
     <cellStyle name="Hyperlink" xfId="778" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="780" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="782" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="784" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="786" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="167"/>
     <cellStyle name="Normal 2 2" xfId="168"/>
@@ -8714,7 +8734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
     </sheetView>
@@ -64096,10 +64116,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -64108,9 +64129,11 @@
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="11" t="s">
         <v>481</v>
       </c>
@@ -64129,8 +64152,14 @@
       <c r="F1" s="11" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="36" customFormat="1">
+      <c r="G1" s="26" t="s">
+        <v>1856</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="36" customFormat="1">
       <c r="A2" s="28" t="s">
         <v>1566</v>
       </c>
@@ -64149,9 +64178,16 @@
       <c r="F2" s="36" t="s">
         <v>1078</v>
       </c>
+      <c r="G2" s="36" t="s">
+        <v>1857</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>1858</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/test/files/IDR7-SDP-Questionnaire-v10-jef.xlsx
+++ b/test/files/IDR7-SDP-Questionnaire-v10-jef.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="26280" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="26280"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -8734,9 +8734,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD266"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>
@@ -8865,10 +8865,6 @@
       </c>
       <c r="J3" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="T3" s="108" t="e">
-        <f>VLOOKUP(A1, ppp!U:U, 1, FALSE)</f>
-        <v>#N/A</v>
       </c>
       <c r="V3" s="67" t="s">
         <v>508</v>
@@ -64118,9 +64114,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:H2"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
